--- a/Excel-XLSX/UN-MTA.xlsx
+++ b/Excel-XLSX/UN-MTA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1241">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>1kU29L</t>
+    <t>2Foc2M</t>
   </si>
   <si>
     <t>1993</t>
@@ -3651,9 +3651,6 @@
     <t>936</t>
   </si>
   <si>
-    <t>1808</t>
-  </si>
-  <si>
     <t>937</t>
   </si>
   <si>
@@ -3672,6 +3669,9 @@
     <t>942</t>
   </si>
   <si>
+    <t>1450</t>
+  </si>
+  <si>
     <t>943</t>
   </si>
   <si>
@@ -3684,9 +3684,6 @@
     <t>946</t>
   </si>
   <si>
-    <t>977</t>
-  </si>
-  <si>
     <t>947</t>
   </si>
   <si>
@@ -3696,9 +3693,6 @@
     <t>949</t>
   </si>
   <si>
-    <t>2307</t>
-  </si>
-  <si>
     <t>951</t>
   </si>
   <si>
@@ -3708,9 +3702,6 @@
     <t>953</t>
   </si>
   <si>
-    <t>2383</t>
-  </si>
-  <si>
     <t>954</t>
   </si>
   <si>
@@ -3718,6 +3709,36 @@
   </si>
   <si>
     <t>956</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>2394</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>2591</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>965</t>
   </si>
 </sst>
 </file>
@@ -4102,7 +4123,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V957"/>
+  <dimension ref="A1:V966"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -66823,16 +66844,16 @@
         <v>1196</v>
       </c>
       <c r="F923" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G923" s="1" t="s">
-        <v>47</v>
+        <v>1079</v>
       </c>
       <c r="H923" s="1" t="s">
-        <v>48</v>
+        <v>1080</v>
       </c>
       <c r="I923" s="1" t="s">
-        <v>49</v>
+        <v>1080</v>
       </c>
       <c r="J923" s="2" t="s">
         <v>28</v>
@@ -66915,10 +66936,10 @@
         <v>31</v>
       </c>
       <c r="N924" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O924" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P924" s="2" t="s">
         <v>33</v>
@@ -66983,10 +67004,10 @@
         <v>31</v>
       </c>
       <c r="N925" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O925" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="P925" s="2" t="s">
         <v>33</v>
@@ -67027,16 +67048,16 @@
         <v>1196</v>
       </c>
       <c r="F926" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G926" s="1" t="s">
-        <v>484</v>
+        <v>253</v>
       </c>
       <c r="H926" s="1" t="s">
-        <v>485</v>
+        <v>254</v>
       </c>
       <c r="I926" s="1" t="s">
-        <v>486</v>
+        <v>255</v>
       </c>
       <c r="J926" s="2" t="s">
         <v>28</v>
@@ -67051,7 +67072,7 @@
         <v>31</v>
       </c>
       <c r="N926" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O926" s="2" t="s">
         <v>50</v>
@@ -67095,16 +67116,16 @@
         <v>1196</v>
       </c>
       <c r="F927" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="G927" s="1" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="H927" s="1" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="I927" s="1" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="J927" s="2" t="s">
         <v>28</v>
@@ -67122,7 +67143,7 @@
         <v>33</v>
       </c>
       <c r="O927" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P927" s="2" t="s">
         <v>33</v>
@@ -67163,16 +67184,16 @@
         <v>1196</v>
       </c>
       <c r="F928" s="2" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G928" s="1" t="s">
-        <v>826</v>
+        <v>484</v>
       </c>
       <c r="H928" s="1" t="s">
-        <v>827</v>
+        <v>485</v>
       </c>
       <c r="I928" s="1" t="s">
-        <v>827</v>
+        <v>486</v>
       </c>
       <c r="J928" s="2" t="s">
         <v>28</v>
@@ -67187,10 +67208,10 @@
         <v>31</v>
       </c>
       <c r="N928" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O928" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="P928" s="2" t="s">
         <v>33</v>
@@ -67231,16 +67252,16 @@
         <v>1196</v>
       </c>
       <c r="F929" s="2" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="G929" s="1" t="s">
-        <v>202</v>
+        <v>432</v>
       </c>
       <c r="H929" s="1" t="s">
-        <v>203</v>
+        <v>433</v>
       </c>
       <c r="I929" s="1" t="s">
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="J929" s="2" t="s">
         <v>28</v>
@@ -67255,7 +67276,7 @@
         <v>31</v>
       </c>
       <c r="N929" s="2" t="s">
-        <v>928</v>
+        <v>33</v>
       </c>
       <c r="O929" s="2" t="s">
         <v>112</v>
@@ -67299,16 +67320,16 @@
         <v>1196</v>
       </c>
       <c r="F930" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="G930" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H930" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I930" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J930" s="2" t="s">
         <v>28</v>
@@ -67323,10 +67344,10 @@
         <v>31</v>
       </c>
       <c r="N930" s="2" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="O930" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="P930" s="2" t="s">
         <v>33</v>
@@ -67367,16 +67388,16 @@
         <v>1196</v>
       </c>
       <c r="F931" s="2" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G931" s="1" t="s">
-        <v>346</v>
+        <v>826</v>
       </c>
       <c r="H931" s="1" t="s">
-        <v>347</v>
+        <v>827</v>
       </c>
       <c r="I931" s="1" t="s">
-        <v>348</v>
+        <v>827</v>
       </c>
       <c r="J931" s="2" t="s">
         <v>28</v>
@@ -67391,10 +67412,10 @@
         <v>31</v>
       </c>
       <c r="N931" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O931" s="2" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="P931" s="2" t="s">
         <v>33</v>
@@ -67435,16 +67456,16 @@
         <v>1196</v>
       </c>
       <c r="F932" s="2" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="G932" s="1" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="H932" s="1" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="I932" s="1" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="J932" s="2" t="s">
         <v>28</v>
@@ -67459,10 +67480,10 @@
         <v>31</v>
       </c>
       <c r="N932" s="2" t="s">
-        <v>143</v>
+        <v>928</v>
       </c>
       <c r="O932" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P932" s="2" t="s">
         <v>33</v>
@@ -67503,16 +67524,16 @@
         <v>1196</v>
       </c>
       <c r="F933" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G933" s="1" t="s">
-        <v>399</v>
+        <v>206</v>
       </c>
       <c r="H933" s="1" t="s">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="I933" s="1" t="s">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="J933" s="2" t="s">
         <v>28</v>
@@ -67527,10 +67548,10 @@
         <v>31</v>
       </c>
       <c r="N933" s="2" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="O933" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="P933" s="2" t="s">
         <v>33</v>
@@ -67571,16 +67592,16 @@
         <v>1196</v>
       </c>
       <c r="F934" s="2" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="G934" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H934" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I934" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J934" s="2" t="s">
         <v>28</v>
@@ -67595,10 +67616,10 @@
         <v>31</v>
       </c>
       <c r="N934" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O934" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P934" s="2" t="s">
         <v>33</v>
@@ -67639,16 +67660,16 @@
         <v>1196</v>
       </c>
       <c r="F935" s="2" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="G935" s="1" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="H935" s="1" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="I935" s="1" t="s">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="J935" s="2" t="s">
         <v>28</v>
@@ -67663,10 +67684,10 @@
         <v>31</v>
       </c>
       <c r="N935" s="2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="O935" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P935" s="2" t="s">
         <v>33</v>
@@ -67707,16 +67728,16 @@
         <v>1196</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G936" s="1" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="H936" s="1" t="s">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="I936" s="1" t="s">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="J936" s="2" t="s">
         <v>28</v>
@@ -67731,10 +67752,10 @@
         <v>31</v>
       </c>
       <c r="N936" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="O936" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="P936" s="2" t="s">
         <v>33</v>
@@ -67775,16 +67796,16 @@
         <v>1196</v>
       </c>
       <c r="F937" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G937" s="1" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="H937" s="1" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="I937" s="1" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="J937" s="2" t="s">
         <v>28</v>
@@ -67799,10 +67820,10 @@
         <v>31</v>
       </c>
       <c r="N937" s="2" t="s">
-        <v>1211</v>
+        <v>33</v>
       </c>
       <c r="O937" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="P937" s="2" t="s">
         <v>33</v>
@@ -67837,22 +67858,22 @@
         <v>22</v>
       </c>
       <c r="D938" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E938" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F938" s="2" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="G938" s="1" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="H938" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="I938" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="J938" s="2" t="s">
         <v>28</v>
@@ -67867,7 +67888,7 @@
         <v>31</v>
       </c>
       <c r="N938" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="O938" s="2" t="s">
         <v>50</v>
@@ -67905,22 +67926,22 @@
         <v>22</v>
       </c>
       <c r="D939" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E939" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F939" s="2" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="G939" s="1" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="H939" s="1" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="I939" s="1" t="s">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="J939" s="2" t="s">
         <v>28</v>
@@ -67935,10 +67956,10 @@
         <v>31</v>
       </c>
       <c r="N939" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="O939" s="2" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="P939" s="2" t="s">
         <v>33</v>
@@ -67973,22 +67994,22 @@
         <v>22</v>
       </c>
       <c r="D940" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E940" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F940" s="2" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="G940" s="1" t="s">
-        <v>696</v>
+        <v>235</v>
       </c>
       <c r="H940" s="1" t="s">
-        <v>697</v>
+        <v>236</v>
       </c>
       <c r="I940" s="1" t="s">
-        <v>698</v>
+        <v>237</v>
       </c>
       <c r="J940" s="2" t="s">
         <v>28</v>
@@ -68003,10 +68024,10 @@
         <v>31</v>
       </c>
       <c r="N940" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O940" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="P940" s="2" t="s">
         <v>33</v>
@@ -68041,22 +68062,22 @@
         <v>22</v>
       </c>
       <c r="D941" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E941" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F941" s="2" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="G941" s="1" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="H941" s="1" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="I941" s="1" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="J941" s="2" t="s">
         <v>28</v>
@@ -68071,10 +68092,10 @@
         <v>31</v>
       </c>
       <c r="N941" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="O941" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="P941" s="2" t="s">
         <v>33</v>
@@ -68109,22 +68130,22 @@
         <v>22</v>
       </c>
       <c r="D942" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E942" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F942" s="2" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="G942" s="1" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="H942" s="1" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="I942" s="1" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="J942" s="2" t="s">
         <v>28</v>
@@ -68139,10 +68160,10 @@
         <v>31</v>
       </c>
       <c r="N942" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="O942" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P942" s="2" t="s">
         <v>33</v>
@@ -68177,22 +68198,22 @@
         <v>22</v>
       </c>
       <c r="D943" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E943" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F943" s="2" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="G943" s="1" t="s">
-        <v>926</v>
+        <v>184</v>
       </c>
       <c r="H943" s="1" t="s">
-        <v>927</v>
+        <v>185</v>
       </c>
       <c r="I943" s="1" t="s">
-        <v>927</v>
+        <v>185</v>
       </c>
       <c r="J943" s="2" t="s">
         <v>28</v>
@@ -68207,10 +68228,10 @@
         <v>31</v>
       </c>
       <c r="N943" s="2" t="s">
-        <v>33</v>
+        <v>1217</v>
       </c>
       <c r="O943" s="2" t="s">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="P943" s="2" t="s">
         <v>33</v>
@@ -68251,16 +68272,16 @@
         <v>1196</v>
       </c>
       <c r="F944" s="2" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="G944" s="1" t="s">
-        <v>645</v>
+        <v>366</v>
       </c>
       <c r="H944" s="1" t="s">
-        <v>646</v>
+        <v>367</v>
       </c>
       <c r="I944" s="1" t="s">
-        <v>646</v>
+        <v>367</v>
       </c>
       <c r="J944" s="2" t="s">
         <v>28</v>
@@ -68275,10 +68296,10 @@
         <v>31</v>
       </c>
       <c r="N944" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O944" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="P944" s="2" t="s">
         <v>33</v>
@@ -68319,16 +68340,16 @@
         <v>1196</v>
       </c>
       <c r="F945" s="2" t="s">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="G945" s="1" t="s">
-        <v>608</v>
+        <v>165</v>
       </c>
       <c r="H945" s="1" t="s">
-        <v>609</v>
+        <v>166</v>
       </c>
       <c r="I945" s="1" t="s">
-        <v>609</v>
+        <v>167</v>
       </c>
       <c r="J945" s="2" t="s">
         <v>28</v>
@@ -68343,7 +68364,7 @@
         <v>31</v>
       </c>
       <c r="N945" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O945" s="2" t="s">
         <v>50</v>
@@ -68387,16 +68408,16 @@
         <v>1196</v>
       </c>
       <c r="F946" s="2" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="G946" s="1" t="s">
-        <v>108</v>
+        <v>696</v>
       </c>
       <c r="H946" s="1" t="s">
-        <v>109</v>
+        <v>697</v>
       </c>
       <c r="I946" s="1" t="s">
-        <v>109</v>
+        <v>698</v>
       </c>
       <c r="J946" s="2" t="s">
         <v>28</v>
@@ -68414,7 +68435,7 @@
         <v>33</v>
       </c>
       <c r="O946" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="P946" s="2" t="s">
         <v>33</v>
@@ -68455,16 +68476,16 @@
         <v>1196</v>
       </c>
       <c r="F947" s="2" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="G947" s="1" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="H947" s="1" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="I947" s="1" t="s">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="J947" s="2" t="s">
         <v>28</v>
@@ -68479,10 +68500,10 @@
         <v>31</v>
       </c>
       <c r="N947" s="2" t="s">
-        <v>1222</v>
+        <v>33</v>
       </c>
       <c r="O947" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="P947" s="2" t="s">
         <v>33</v>
@@ -68517,22 +68538,22 @@
         <v>22</v>
       </c>
       <c r="D948" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E948" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F948" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="G948" s="1" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="H948" s="1" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="I948" s="1" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="J948" s="2" t="s">
         <v>28</v>
@@ -68547,10 +68568,10 @@
         <v>31</v>
       </c>
       <c r="N948" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="O948" s="2" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="P948" s="2" t="s">
         <v>33</v>
@@ -68585,22 +68606,22 @@
         <v>22</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E949" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F949" s="2" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="G949" s="1" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="H949" s="1" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="I949" s="1" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="J949" s="2" t="s">
         <v>28</v>
@@ -68615,10 +68636,10 @@
         <v>31</v>
       </c>
       <c r="N949" s="2" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="O949" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="P949" s="2" t="s">
         <v>33</v>
@@ -68653,22 +68674,22 @@
         <v>22</v>
       </c>
       <c r="D950" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E950" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F950" s="2" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="G950" s="1" t="s">
-        <v>87</v>
+        <v>926</v>
       </c>
       <c r="H950" s="1" t="s">
-        <v>88</v>
+        <v>927</v>
       </c>
       <c r="I950" s="1" t="s">
-        <v>88</v>
+        <v>927</v>
       </c>
       <c r="J950" s="2" t="s">
         <v>28</v>
@@ -68683,10 +68704,10 @@
         <v>31</v>
       </c>
       <c r="N950" s="2" t="s">
-        <v>1226</v>
+        <v>33</v>
       </c>
       <c r="O950" s="2" t="s">
-        <v>319</v>
+        <v>50</v>
       </c>
       <c r="P950" s="2" t="s">
         <v>33</v>
@@ -68727,16 +68748,16 @@
         <v>1196</v>
       </c>
       <c r="F951" s="2" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="G951" s="1" t="s">
-        <v>331</v>
+        <v>645</v>
       </c>
       <c r="H951" s="1" t="s">
-        <v>332</v>
+        <v>646</v>
       </c>
       <c r="I951" s="1" t="s">
-        <v>333</v>
+        <v>646</v>
       </c>
       <c r="J951" s="2" t="s">
         <v>28</v>
@@ -68751,10 +68772,10 @@
         <v>31</v>
       </c>
       <c r="N951" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="O951" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="P951" s="2" t="s">
         <v>33</v>
@@ -68789,22 +68810,22 @@
         <v>22</v>
       </c>
       <c r="D952" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E952" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F952" s="2" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="G952" s="1" t="s">
-        <v>131</v>
+        <v>608</v>
       </c>
       <c r="H952" s="1" t="s">
-        <v>132</v>
+        <v>609</v>
       </c>
       <c r="I952" s="1" t="s">
-        <v>132</v>
+        <v>609</v>
       </c>
       <c r="J952" s="2" t="s">
         <v>28</v>
@@ -68819,10 +68840,10 @@
         <v>31</v>
       </c>
       <c r="N952" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O952" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P952" s="2" t="s">
         <v>33</v>
@@ -68857,22 +68878,22 @@
         <v>22</v>
       </c>
       <c r="D953" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E953" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F953" s="2" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="G953" s="1" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="H953" s="1" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="I953" s="1" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="J953" s="2" t="s">
         <v>28</v>
@@ -68887,10 +68908,10 @@
         <v>31</v>
       </c>
       <c r="N953" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="O953" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="P953" s="2" t="s">
         <v>33</v>
@@ -68925,22 +68946,22 @@
         <v>22</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E954" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F954" s="2" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="G954" s="1" t="s">
-        <v>661</v>
+        <v>37</v>
       </c>
       <c r="H954" s="1" t="s">
-        <v>662</v>
+        <v>38</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>662</v>
+        <v>38</v>
       </c>
       <c r="J954" s="2" t="s">
         <v>28</v>
@@ -68955,10 +68976,10 @@
         <v>31</v>
       </c>
       <c r="N954" s="2" t="s">
-        <v>1230</v>
+        <v>271</v>
       </c>
       <c r="O954" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="P954" s="2" t="s">
         <v>33</v>
@@ -68993,22 +69014,22 @@
         <v>22</v>
       </c>
       <c r="D955" s="2" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E955" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F955" s="2" t="s">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="G955" s="1" t="s">
-        <v>718</v>
+        <v>42</v>
       </c>
       <c r="H955" s="1" t="s">
-        <v>719</v>
+        <v>43</v>
       </c>
       <c r="I955" s="1" t="s">
-        <v>719</v>
+        <v>43</v>
       </c>
       <c r="J955" s="2" t="s">
         <v>28</v>
@@ -69023,10 +69044,10 @@
         <v>31</v>
       </c>
       <c r="N955" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O955" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="P955" s="2" t="s">
         <v>33</v>
@@ -69061,22 +69082,22 @@
         <v>22</v>
       </c>
       <c r="D956" s="2" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E956" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F956" s="2" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="G956" s="1" t="s">
-        <v>877</v>
+        <v>652</v>
       </c>
       <c r="H956" s="1" t="s">
-        <v>878</v>
+        <v>653</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>878</v>
+        <v>653</v>
       </c>
       <c r="J956" s="2" t="s">
         <v>28</v>
@@ -69091,10 +69112,10 @@
         <v>31</v>
       </c>
       <c r="N956" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O956" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="O956" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P956" s="2" t="s">
         <v>33</v>
@@ -69129,60 +69150,672 @@
         <v>22</v>
       </c>
       <c r="D957" s="2" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="E957" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F957" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G957" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H957" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I957" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J957" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K957" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L957" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M957" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N957" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O957" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P957" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q957" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R957" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S957" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T957" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="U957" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V957" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C958" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D958" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E958" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F958" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G958" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H958" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I958" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J958" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K958" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L958" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M958" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N958" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O958" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="P958" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q958" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R958" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S958" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T958" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U958" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V958" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C959" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D959" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E959" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F959" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G959" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H959" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I959" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J959" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K959" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L959" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M959" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N959" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O959" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P959" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q959" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R959" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S959" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T959" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U959" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V959" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C960" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D960" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E960" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F960" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G960" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H960" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I960" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J960" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K960" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L960" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M960" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N960" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O960" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P960" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q960" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R960" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S960" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T960" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U960" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V960" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C961" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D961" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E961" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F961" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G961" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H961" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I961" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J961" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K961" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L961" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M961" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N961" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O961" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P961" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q961" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R961" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S961" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T961" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U961" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V961" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C962" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D962" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E962" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F962" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G962" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H962" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I962" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J962" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K962" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L962" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M962" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N962" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O962" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P962" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q962" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R962" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S962" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T962" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U962" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V962" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C963" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D963" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E963" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F963" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G963" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H963" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I963" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="J963" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K963" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L963" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M963" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N963" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O963" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P963" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q963" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R963" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S963" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T963" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U963" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V963" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C964" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E964" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F964" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G964" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H964" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="I964" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="J964" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K964" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L964" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M964" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N964" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O964" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P964" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q964" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R964" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S964" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T964" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U964" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V964" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C965" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D965" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E965" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F965" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G965" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="H965" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="I965" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="J965" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K965" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L965" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M965" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N965" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O965" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P965" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q965" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R965" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S965" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T965" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U965" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V965" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C966" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D966" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E966" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F966" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G957" s="1" t="s">
+      <c r="G966" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="H957" s="1" t="s">
+      <c r="H966" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="I957" s="1" t="s">
+      <c r="I966" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="J957" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K957" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L957" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M957" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N957" s="2" t="s">
+      <c r="J966" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K966" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L966" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M966" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N966" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O957" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P957" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q957" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R957" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S957" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T957" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U957" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V957" s="2" t="s">
+      <c r="O966" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P966" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q966" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R966" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S966" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T966" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U966" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V966" s="2" t="s">
         <v>33</v>
       </c>
     </row>
